--- a/relatorios/repasses_liberados/dentistas/11125922451/2023-08-25_relatorio_repasses_11125922451.xlsx
+++ b/relatorios/repasses_liberados/dentistas/11125922451/2023-08-25_relatorio_repasses_11125922451.xlsx
@@ -1105,10 +1105,10 @@
         <v>0.06392</v>
       </c>
       <c r="M11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N11">
-        <v>0.86292</v>
+        <v>1.15056</v>
       </c>
     </row>
     <row r="12" spans="1:15">

--- a/relatorios/repasses_liberados/dentistas/11125922451/2023-08-25_relatorio_repasses_11125922451.xlsx
+++ b/relatorios/repasses_liberados/dentistas/11125922451/2023-08-25_relatorio_repasses_11125922451.xlsx
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N6">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N8">
-        <v>12.6</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1017,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>23.16</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1061,10 +1061,10 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N10">
-        <v>154.8</v>
+        <v>206.4</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1105,10 +1105,10 @@
         <v>0.06392</v>
       </c>
       <c r="M11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N11">
-        <v>1.15056</v>
+        <v>0.86292</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1149,10 +1149,10 @@
         <v>0.263352</v>
       </c>
       <c r="M12">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N12">
-        <v>19.53018432</v>
+        <v>14.64763824</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1193,10 +1193,10 @@
         <v>0.572727</v>
       </c>
       <c r="M13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N13">
-        <v>92.36941055999999</v>
+        <v>69.27705791999999</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1413,10 +1413,10 @@
         <v>0.552192</v>
       </c>
       <c r="M18">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N18">
-        <v>262.8986112</v>
+        <v>350.5314816000001</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1589,10 +1589,10 @@
         <v>0.877193</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>26.31579</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1633,10 +1633,10 @@
         <v>0.87007</v>
       </c>
       <c r="M23">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N23">
-        <v>391.5315</v>
+        <v>652.5525</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1721,10 +1721,10 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N25">
-        <v>206.4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2161,10 +2161,10 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2249,10 +2249,10 @@
         <v>0.87</v>
       </c>
       <c r="M37">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N37">
-        <v>521.95824</v>
+        <v>391.46868</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2337,10 +2337,10 @@
         <v>0.361966</v>
       </c>
       <c r="M39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N39">
-        <v>112.964883042</v>
+        <v>150.619844056</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2469,10 +2469,10 @@
         <v>0.869565</v>
       </c>
       <c r="M42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N42">
-        <v>313.0434</v>
+        <v>417.3912</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2777,10 +2777,10 @@
         <v>0.769231</v>
       </c>
       <c r="M49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N49">
-        <v>115.38465</v>
+        <v>153.8462</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3217,10 +3217,10 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N59">
-        <v>16.408</v>
+        <v>20.51</v>
       </c>
     </row>
   </sheetData>
